--- a/outputs-HGR-r202/test-f__CAG-826_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__CAG-826_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Row</t>
   </si>
@@ -70,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -80,14 +80,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,30 +114,30 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -156,7 +160,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -179,7 +183,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -202,7 +206,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -225,7 +229,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">

--- a/outputs-HGR-r202/test-f__CAG-826_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__CAG-826_split_pruned.xlsx
@@ -14,12 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Row</t>
   </si>
   <si>
+    <t>even_MAG-GUT16567.fa</t>
+  </si>
+  <si>
     <t>even_MAG-GUT2366.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT46037.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT65341.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT65671.fa</t>
@@ -88,13 +97,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="true"/>
+    <col min="1" max="1" width="22.42578125" customWidth="true"/>
     <col min="2" max="2" width="15.5703125" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.5703125" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true"/>
+    <col min="4" max="4" width="15.5703125" customWidth="true"/>
     <col min="5" max="5" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="15.5703125" customWidth="true"/>
     <col min="7" max="7" width="10.28515625" customWidth="true"/>
@@ -105,22 +114,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -128,22 +137,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.8544220861219599e-08</v>
+        <v>6.5089906573752847e-10</v>
       </c>
       <c r="C2">
-        <v>0.016943499145137604</v>
+        <v>5.4133066828865473e-07</v>
       </c>
       <c r="D2">
-        <v>0.98293023044815364</v>
+        <v>7.7082141959746711e-05</v>
       </c>
       <c r="E2">
-        <v>0.00012620123446698201</v>
+        <v>0.0012592299767270295</v>
       </c>
       <c r="F2">
-        <v>4.0628020880208989e-08</v>
+        <v>0.99866314589974592</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -151,21 +160,90 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2.8544220861219599e-08</v>
+      </c>
+      <c r="C3">
+        <v>0.016943499145137604</v>
+      </c>
+      <c r="D3">
+        <v>0.98293023044815364</v>
+      </c>
+      <c r="E3">
+        <v>0.00012620123446698201</v>
+      </c>
+      <c r="F3">
+        <v>4.0628020880208989e-08</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3.9402090092631296e-10</v>
+      </c>
+      <c r="C4">
+        <v>1.0506223688716358e-07</v>
+      </c>
+      <c r="D4">
+        <v>6.7092409466793155e-05</v>
+      </c>
+      <c r="E4">
+        <v>0.0011118389473078456</v>
+      </c>
+      <c r="F4">
+        <v>0.99882096318696767</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.9275887155289267e-08</v>
+      </c>
+      <c r="C5">
+        <v>8.2337420916768554e-08</v>
+      </c>
+      <c r="D5">
+        <v>5.4810960876638929e-05</v>
+      </c>
+      <c r="E5">
+        <v>0.0032615505969178981</v>
+      </c>
+      <c r="F5">
+        <v>0.99668353682889743</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>2.3242005128949147e-14</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>2.3779668469787836e-06</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>2.1288403641092648e-09</v>
       </c>
-      <c r="E3">
+      <c r="E6">
         <v>0.999903378308029</v>
       </c>
-      <c r="F3">
+      <c r="F6">
         <v>9.4241596260542101e-05</v>
       </c>
-      <c r="G3">
+      <c r="G6">
         <v>4</v>
       </c>
     </row>
